--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1332584.03515563</v>
+        <v>-1335392.812353914</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.08085839272979</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>352.2002673373379</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.0516147295368</v>
       </c>
       <c r="H2" t="n">
-        <v>316.4204908877587</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.462026260311717</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>157.7226091094245</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1655630849886</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>92.59856884020556</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>100.6029265194729</v>
       </c>
       <c r="I3" t="n">
-        <v>47.92739394195313</v>
+        <v>47.92739394195336</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.37585377017899</v>
+        <v>25.37585377017942</v>
       </c>
       <c r="S3" t="n">
-        <v>149.3109129151026</v>
+        <v>149.3109129151028</v>
       </c>
       <c r="T3" t="n">
         <v>195.3099222543381</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>191.3345013981869</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.8899608066759</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>13.60844820380936</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.05161472953676</v>
+        <v>320.2254709592171</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.6894783786282</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.462026260310921</v>
+        <v>8.462026260311717</v>
       </c>
       <c r="S5" t="n">
-        <v>157.7226091094242</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.2415595701748</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>100.6029265194729</v>
       </c>
       <c r="I6" t="n">
-        <v>47.92739394195313</v>
+        <v>47.92739394195336</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.37585377017899</v>
+        <v>25.37585377017942</v>
       </c>
       <c r="S6" t="n">
-        <v>149.3109129151026</v>
+        <v>149.3109129151028</v>
       </c>
       <c r="T6" t="n">
         <v>195.3099222543381</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21.96800391142757</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.607057521141002</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>131.8901822333939</v>
       </c>
       <c r="S7" t="n">
-        <v>206.1676015714263</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>169.5590763264317</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.0013071897309</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>223.3573072440055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>9.62831585034996</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.964946477684</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465653</v>
       </c>
       <c r="F13" t="n">
-        <v>33.55293486399881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>106.9977768135433</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>245.8267803122423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.7077656527111</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261733</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2258.508671367541</v>
+        <v>1583.134168109868</v>
       </c>
       <c r="C2" t="n">
-        <v>1889.54615442713</v>
+        <v>1214.171651169456</v>
       </c>
       <c r="D2" t="n">
-        <v>1531.280455820379</v>
+        <v>855.9059525627058</v>
       </c>
       <c r="E2" t="n">
-        <v>1145.492203222135</v>
+        <v>470.1176999644616</v>
       </c>
       <c r="F2" t="n">
-        <v>789.7343574268441</v>
+        <v>470.1176999644616</v>
       </c>
       <c r="G2" t="n">
-        <v>372.5105041646858</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="H2" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="I2" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="J2" t="n">
-        <v>230.2146704401682</v>
+        <v>112.6073676594749</v>
       </c>
       <c r="K2" t="n">
-        <v>616.7174237892539</v>
+        <v>499.110121008559</v>
       </c>
       <c r="L2" t="n">
-        <v>854.4624919473762</v>
+        <v>1030.877590991635</v>
       </c>
       <c r="M2" t="n">
-        <v>1462.7628083987</v>
+        <v>1194.159509285052</v>
       </c>
       <c r="N2" t="n">
-        <v>2066.274062382794</v>
+        <v>1797.670763269144</v>
       </c>
       <c r="O2" t="n">
-        <v>2213.972808674878</v>
+        <v>2322.361689011344</v>
       </c>
       <c r="P2" t="n">
-        <v>2624.109991734721</v>
+        <v>2413.918150981417</v>
       </c>
       <c r="Q2" t="n">
-        <v>2644.69233511516</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="R2" t="n">
-        <v>2644.69233511516</v>
+        <v>2636.144833842119</v>
       </c>
       <c r="S2" t="n">
-        <v>2644.69233511516</v>
+        <v>2476.829067064923</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.69233511516</v>
+        <v>2261.433552347574</v>
       </c>
       <c r="U2" t="n">
-        <v>2644.69233511516</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="V2" t="n">
-        <v>2644.69233511516</v>
+        <v>1676.668076029267</v>
       </c>
       <c r="W2" t="n">
-        <v>2291.923679845046</v>
+        <v>1676.668076029267</v>
       </c>
       <c r="X2" t="n">
-        <v>2291.923679845046</v>
+        <v>1676.668076029267</v>
       </c>
       <c r="Y2" t="n">
-        <v>2291.923679845046</v>
+        <v>1583.134168109868</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>969.5981276629532</v>
+        <v>969.5981276629536</v>
       </c>
       <c r="C3" t="n">
-        <v>795.1450983818262</v>
+        <v>795.1450983818266</v>
       </c>
       <c r="D3" t="n">
-        <v>646.2106887205748</v>
+        <v>646.2106887205753</v>
       </c>
       <c r="E3" t="n">
-        <v>486.9732337151192</v>
+        <v>486.9732337151197</v>
       </c>
       <c r="F3" t="n">
-        <v>340.4386757420044</v>
+        <v>340.4386757420048</v>
       </c>
       <c r="G3" t="n">
-        <v>202.9244734310164</v>
+        <v>202.9244734310166</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3053557345791</v>
+        <v>101.3053557345793</v>
       </c>
       <c r="I3" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="J3" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="K3" t="n">
-        <v>108.9792602374794</v>
+        <v>108.9792602374783</v>
       </c>
       <c r="L3" t="n">
-        <v>597.847503111024</v>
+        <v>597.8475031110214</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.312905759403</v>
+        <v>1220.312905759399</v>
       </c>
       <c r="N3" t="n">
-        <v>1874.874258700405</v>
+        <v>1688.263342002135</v>
       </c>
       <c r="O3" t="n">
-        <v>2407.332893814988</v>
+        <v>2220.721977116716</v>
       </c>
       <c r="P3" t="n">
-        <v>2631.063906501243</v>
+        <v>2631.063906501244</v>
       </c>
       <c r="Q3" t="n">
-        <v>2644.69233511516</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="R3" t="n">
         <v>2619.060159589727</v>
@@ -4437,10 +4437,10 @@
         <v>2468.241055635078</v>
       </c>
       <c r="T3" t="n">
-        <v>2270.958305883221</v>
+        <v>2270.958305883222</v>
       </c>
       <c r="U3" t="n">
-        <v>2042.814728613452</v>
+        <v>2042.814728613453</v>
       </c>
       <c r="V3" t="n">
         <v>1807.66262038171</v>
@@ -4449,10 +4449,10 @@
         <v>1553.425263653508</v>
       </c>
       <c r="X3" t="n">
-        <v>1345.573763447975</v>
+        <v>1345.573763447976</v>
       </c>
       <c r="Y3" t="n">
-        <v>1137.813464683021</v>
+        <v>1137.813464683022</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7431232126032</v>
+        <v>2017.2957547795</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8069402846963</v>
+        <v>1848.359571851594</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8069402846963</v>
+        <v>1698.242932439258</v>
       </c>
       <c r="E4" t="n">
-        <v>52.89384670230321</v>
+        <v>1698.242932439258</v>
       </c>
       <c r="F4" t="n">
-        <v>52.89384670230321</v>
+        <v>1698.242932439258</v>
       </c>
       <c r="G4" t="n">
-        <v>52.89384670230321</v>
+        <v>1698.242932439258</v>
       </c>
       <c r="H4" t="n">
-        <v>52.89384670230321</v>
+        <v>1698.242932439258</v>
       </c>
       <c r="I4" t="n">
-        <v>52.89384670230321</v>
+        <v>1698.242932439258</v>
       </c>
       <c r="J4" t="n">
-        <v>52.89384670230321</v>
+        <v>1698.242932439258</v>
       </c>
       <c r="K4" t="n">
-        <v>146.9915064725766</v>
+        <v>1792.340592209531</v>
       </c>
       <c r="L4" t="n">
-        <v>322.930548891114</v>
+        <v>1968.279634628067</v>
       </c>
       <c r="M4" t="n">
-        <v>518.8227237419422</v>
+        <v>2164.171809478894</v>
       </c>
       <c r="N4" t="n">
-        <v>715.4916369372103</v>
+        <v>2360.840722674161</v>
       </c>
       <c r="O4" t="n">
-        <v>881.1309145445626</v>
+        <v>2526.480000281513</v>
       </c>
       <c r="P4" t="n">
-        <v>999.3432493782116</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="Q4" t="n">
-        <v>999.3432493782116</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="R4" t="n">
-        <v>999.3432493782116</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="S4" t="n">
-        <v>999.3432493782116</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="T4" t="n">
-        <v>999.3432493782116</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="U4" t="n">
-        <v>806.0760762487298</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="V4" t="n">
-        <v>551.391588042843</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="W4" t="n">
-        <v>551.391588042843</v>
+        <v>2355.275165078201</v>
       </c>
       <c r="X4" t="n">
-        <v>551.391588042843</v>
+        <v>2127.285614180183</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.391588042843</v>
+        <v>2017.2957547795</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>813.9969194969983</v>
+        <v>1270.544388823758</v>
       </c>
       <c r="C5" t="n">
-        <v>445.0344025565866</v>
+        <v>1270.544388823758</v>
       </c>
       <c r="D5" t="n">
-        <v>86.76870394983609</v>
+        <v>912.2786902170071</v>
       </c>
       <c r="E5" t="n">
-        <v>73.02279667326098</v>
+        <v>912.2786902170071</v>
       </c>
       <c r="F5" t="n">
-        <v>66.07729592405751</v>
+        <v>501.2927854273996</v>
       </c>
       <c r="G5" t="n">
-        <v>52.89384670230321</v>
+        <v>177.8327137514226</v>
       </c>
       <c r="H5" t="n">
-        <v>52.89384670230321</v>
+        <v>177.8327137514226</v>
       </c>
       <c r="I5" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="J5" t="n">
-        <v>230.2146704401682</v>
+        <v>230.2146704401671</v>
       </c>
       <c r="K5" t="n">
-        <v>616.7174237892539</v>
+        <v>616.7174237892511</v>
       </c>
       <c r="L5" t="n">
-        <v>1148.484893772332</v>
+        <v>1145.270325069732</v>
       </c>
       <c r="M5" t="n">
-        <v>1756.785210223655</v>
+        <v>1308.552243363149</v>
       </c>
       <c r="N5" t="n">
-        <v>1927.323009039885</v>
+        <v>1479.090042179376</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.02175533197</v>
+        <v>2003.780967921577</v>
       </c>
       <c r="P5" t="n">
-        <v>2485.158938391812</v>
+        <v>2413.918150981417</v>
       </c>
       <c r="Q5" t="n">
-        <v>2644.69233511516</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="R5" t="n">
         <v>2636.144833842119</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.829067064923</v>
+        <v>2636.144833842119</v>
       </c>
       <c r="T5" t="n">
-        <v>2261.433552347575</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="U5" t="n">
-        <v>2261.433552347575</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="V5" t="n">
-        <v>1930.370665004004</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="W5" t="n">
-        <v>1577.60200973389</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="X5" t="n">
-        <v>1204.13625147281</v>
+        <v>2047.283560863691</v>
       </c>
       <c r="Y5" t="n">
-        <v>813.9969194969983</v>
+        <v>1657.144228887879</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969.5981276629535</v>
+        <v>969.598127662954</v>
       </c>
       <c r="C6" t="n">
-        <v>795.1450983818265</v>
+        <v>795.145098381827</v>
       </c>
       <c r="D6" t="n">
-        <v>646.2106887205753</v>
+        <v>646.2106887205757</v>
       </c>
       <c r="E6" t="n">
-        <v>486.9732337151198</v>
+        <v>486.9732337151202</v>
       </c>
       <c r="F6" t="n">
-        <v>340.4386757420048</v>
+        <v>340.4386757420051</v>
       </c>
       <c r="G6" t="n">
-        <v>202.9244734310163</v>
+        <v>202.9244734310167</v>
       </c>
       <c r="H6" t="n">
-        <v>101.3053557345791</v>
+        <v>101.3053557345794</v>
       </c>
       <c r="I6" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="J6" t="n">
-        <v>164.8115348683185</v>
+        <v>164.8115348683178</v>
       </c>
       <c r="K6" t="n">
-        <v>482.7175330459475</v>
+        <v>220.8969484034929</v>
       </c>
       <c r="L6" t="n">
-        <v>971.5857759194921</v>
+        <v>342.6332494266115</v>
       </c>
       <c r="M6" t="n">
-        <v>1594.051178567871</v>
+        <v>965.0986520749893</v>
       </c>
       <c r="N6" t="n">
-        <v>2003.541482955669</v>
+        <v>1619.660005015992</v>
       </c>
       <c r="O6" t="n">
-        <v>2536.000118070251</v>
+        <v>2152.118640130572</v>
       </c>
       <c r="P6" t="n">
-        <v>2631.063906501243</v>
+        <v>2423.087391642754</v>
       </c>
       <c r="Q6" t="n">
-        <v>2644.69233511516</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="R6" t="n">
         <v>2619.060159589727</v>
@@ -4674,22 +4674,22 @@
         <v>2468.241055635078</v>
       </c>
       <c r="T6" t="n">
-        <v>2270.958305883221</v>
+        <v>2270.958305883222</v>
       </c>
       <c r="U6" t="n">
-        <v>2042.814728613452</v>
+        <v>2042.814728613453</v>
       </c>
       <c r="V6" t="n">
         <v>1807.66262038171</v>
       </c>
       <c r="W6" t="n">
-        <v>1553.425263653508</v>
+        <v>1553.425263653509</v>
       </c>
       <c r="X6" t="n">
-        <v>1345.573763447975</v>
+        <v>1345.573763447976</v>
       </c>
       <c r="Y6" t="n">
-        <v>1137.813464683021</v>
+        <v>1137.813464683022</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="C7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="D7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="E7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="F7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="G7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="H7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="I7" t="n">
-        <v>52.89384670230321</v>
+        <v>75.08374964313916</v>
       </c>
       <c r="J7" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="K7" t="n">
-        <v>146.9915064725766</v>
+        <v>146.991506472576</v>
       </c>
       <c r="L7" t="n">
-        <v>322.930548891114</v>
+        <v>322.9305488911125</v>
       </c>
       <c r="M7" t="n">
-        <v>518.8227237419422</v>
+        <v>518.8227237419399</v>
       </c>
       <c r="N7" t="n">
-        <v>715.4916369372103</v>
+        <v>715.491636937207</v>
       </c>
       <c r="O7" t="n">
-        <v>881.1309145445626</v>
+        <v>881.1309145445586</v>
       </c>
       <c r="P7" t="n">
-        <v>999.3432493782116</v>
+        <v>999.3432493782068</v>
       </c>
       <c r="Q7" t="n">
-        <v>999.3432493782116</v>
+        <v>997.7199589528118</v>
       </c>
       <c r="R7" t="n">
-        <v>999.3432493782116</v>
+        <v>864.4975526564543</v>
       </c>
       <c r="S7" t="n">
-        <v>791.0931467808113</v>
+        <v>655.9935596405192</v>
       </c>
       <c r="T7" t="n">
-        <v>791.0931467808113</v>
+        <v>655.9935596405192</v>
       </c>
       <c r="U7" t="n">
-        <v>791.0931467808113</v>
+        <v>655.9935596405192</v>
       </c>
       <c r="V7" t="n">
-        <v>791.0931467808113</v>
+        <v>484.7217653713962</v>
       </c>
       <c r="W7" t="n">
-        <v>501.6759767438506</v>
+        <v>484.7217653713962</v>
       </c>
       <c r="X7" t="n">
-        <v>273.6864258458333</v>
+        <v>256.7322144733789</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.89384670230321</v>
+        <v>256.7322144733789</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.255702264584</v>
+        <v>1492.369227514339</v>
       </c>
       <c r="C8" t="n">
-        <v>1197.255702264584</v>
+        <v>1492.369227514339</v>
       </c>
       <c r="D8" t="n">
-        <v>1197.255702264584</v>
+        <v>1492.369227514339</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.255702264584</v>
+        <v>1106.580974916095</v>
       </c>
       <c r="F8" t="n">
-        <v>786.2697974749765</v>
+        <v>695.5950701264874</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1169619297937</v>
+        <v>278.5072883629148</v>
       </c>
       <c r="H8" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I8" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J8" t="n">
         <v>241.5337457160396</v>
@@ -4808,46 +4808,46 @@
         <v>645.0008587360851</v>
       </c>
       <c r="L8" t="n">
-        <v>1042.006497516498</v>
+        <v>784.3295145773383</v>
       </c>
       <c r="M8" t="n">
-        <v>1228.705910341905</v>
+        <v>971.0289274027459</v>
       </c>
       <c r="N8" t="n">
-        <v>1423.040123233888</v>
+        <v>1423.040123233889</v>
       </c>
       <c r="O8" t="n">
-        <v>1970.201328000965</v>
+        <v>1970.201328000966</v>
       </c>
       <c r="P8" t="n">
-        <v>2399.51637434026</v>
+        <v>2399.516374340261</v>
       </c>
       <c r="Q8" t="n">
-        <v>2644.69233511516</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R8" t="n">
-        <v>2644.69233511516</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="S8" t="n">
-        <v>2644.69233511516</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="T8" t="n">
-        <v>2644.69233511516</v>
+        <v>2429.892473382873</v>
       </c>
       <c r="U8" t="n">
-        <v>2644.69233511516</v>
+        <v>2176.200770128024</v>
       </c>
       <c r="V8" t="n">
-        <v>2313.62944777159</v>
+        <v>1845.137882784453</v>
       </c>
       <c r="W8" t="n">
-        <v>1960.860792501476</v>
+        <v>1492.369227514339</v>
       </c>
       <c r="X8" t="n">
-        <v>1587.395034240396</v>
+        <v>1492.369227514339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1197.255702264584</v>
+        <v>1492.369227514339</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4875,16 @@
         <v>199.7146815671821</v>
       </c>
       <c r="H9" t="n">
-        <v>98.79870371198672</v>
+        <v>98.79870371198675</v>
       </c>
       <c r="I9" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J9" t="n">
         <v>171.5530985591989</v>
       </c>
       <c r="K9" t="n">
-        <v>500.9815028650087</v>
+        <v>500.9815028650088</v>
       </c>
       <c r="L9" t="n">
         <v>1005.343042731127</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.596597239934</v>
+        <v>80.49400602767591</v>
       </c>
       <c r="C10" t="n">
-        <v>234.596597239934</v>
+        <v>80.49400602767591</v>
       </c>
       <c r="D10" t="n">
-        <v>234.596597239934</v>
+        <v>80.49400602767591</v>
       </c>
       <c r="E10" t="n">
-        <v>234.596597239934</v>
+        <v>80.49400602767591</v>
       </c>
       <c r="F10" t="n">
-        <v>234.596597239934</v>
+        <v>80.49400602767591</v>
       </c>
       <c r="G10" t="n">
-        <v>65.98975223531735</v>
+        <v>80.49400602767591</v>
       </c>
       <c r="H10" t="n">
-        <v>65.98975223531735</v>
+        <v>70.76843446166585</v>
       </c>
       <c r="I10" t="n">
-        <v>65.98975223531735</v>
+        <v>70.76843446166585</v>
       </c>
       <c r="J10" t="n">
-        <v>52.89384670230321</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K10" t="n">
-        <v>153.941776297913</v>
+        <v>153.9417762979131</v>
       </c>
       <c r="L10" t="n">
-        <v>338.7747711987314</v>
+        <v>338.7747711987315</v>
       </c>
       <c r="M10" t="n">
-        <v>544.0443719179693</v>
+        <v>544.0443719179694</v>
       </c>
       <c r="N10" t="n">
-        <v>749.8677367540736</v>
+        <v>749.8677367540738</v>
       </c>
       <c r="O10" t="n">
-        <v>923.9626321426724</v>
+        <v>923.9626321426726</v>
       </c>
       <c r="P10" t="n">
         <v>1049.410208741288</v>
@@ -4984,28 +4984,28 @@
         <v>1052.828528161648</v>
       </c>
       <c r="R10" t="n">
-        <v>922.3505668810506</v>
+        <v>1052.828528161648</v>
       </c>
       <c r="S10" t="n">
-        <v>714.9102821334559</v>
+        <v>845.3882434140535</v>
       </c>
       <c r="T10" t="n">
-        <v>489.2810854458208</v>
+        <v>845.3882434140535</v>
       </c>
       <c r="U10" t="n">
-        <v>489.2810854458208</v>
+        <v>845.3882434140535</v>
       </c>
       <c r="V10" t="n">
-        <v>234.596597239934</v>
+        <v>590.7037552081666</v>
       </c>
       <c r="W10" t="n">
-        <v>234.596597239934</v>
+        <v>301.286585171206</v>
       </c>
       <c r="X10" t="n">
-        <v>234.596597239934</v>
+        <v>301.286585171206</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.596597239934</v>
+        <v>80.49400602767591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>1016.580456911436</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836013</v>
+        <v>847.6442739835292</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5295404712656</v>
+        <v>697.5276345711934</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888725</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820184</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783223</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.021500885206</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.228921741676</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,13 +6643,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,13 +6786,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6844,7 +6844,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,16 +7175,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7339,43 +7339,43 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
         <v>268.555303634548</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7603,10 +7603,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
         <v>1280.33868158239</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>50.3013598380412</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>120.6688894747375</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>13.04286547574696</v>
+        <v>13.04286547574762</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.2556368694885</v>
+        <v>290.7597614166964</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>129.9668931871349</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>414.4141754569194</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>140.3545993362711</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>231.7091231793828</v>
+        <v>479.2556368694906</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>177.6817808900919</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8456,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>260.2797807466258</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>260.2797807466271</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.6529832707508</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>290.1743324691121</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.4204908877588</v>
       </c>
       <c r="I2" t="n">
-        <v>123.6894783786277</v>
+        <v>123.6894783786282</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>157.7226091094242</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.2415595701748</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1655630849886</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>293.639369815848</v>
       </c>
     </row>
     <row r="3">
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>109.6946925454189</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>111.8681131589324</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>145.1398665102847</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185644</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>6.310863011585695</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.12421452922624</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.709566198145672e-13</v>
+        <v>-3.836930773104541e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26314,22 +26314,22 @@
         <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
+        <v>161429.3199380013</v>
+      </c>
+      <c r="F2" t="n">
         <v>161429.3199380012</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="H2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="G2" t="n">
-        <v>161429.3199380013</v>
-      </c>
-      <c r="H2" t="n">
-        <v>161429.3199380011</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
@@ -26338,13 +26338,13 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761165.588578883</v>
+        <v>761165.5885788801</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28697.84000521134</v>
+        <v>28697.84000521407</v>
       </c>
       <c r="E3" t="n">
         <v>774968.2996968125</v>
@@ -26390,10 +26390,10 @@
         <v>172991.9703322178</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.309738855493348e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="M3" t="n">
         <v>127476.6190575751</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.857212364357989e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107154.126250673</v>
+        <v>107154.1262506734</v>
       </c>
       <c r="C4" t="n">
-        <v>189363.5381878105</v>
+        <v>189363.5381878111</v>
       </c>
       <c r="D4" t="n">
-        <v>183702.060969633</v>
+        <v>183702.0609696329</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695105</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695059</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695092</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695085</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="N4" t="n">
         <v>14278.33979478854</v>
       </c>
-      <c r="N4" t="n">
-        <v>14278.33979478852</v>
-      </c>
       <c r="O4" t="n">
-        <v>14278.33979478859</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478854</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86034.19957935359</v>
+        <v>86034.19957935353</v>
       </c>
       <c r="C5" t="n">
-        <v>86034.19957935359</v>
+        <v>86034.19957935353</v>
       </c>
       <c r="D5" t="n">
-        <v>86764.70248112026</v>
+        <v>86764.70248112027</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-818952.2016934521</v>
+        <v>-819312.2847091671</v>
       </c>
       <c r="C6" t="n">
-        <v>-111189.3837943074</v>
+        <v>-111189.383794308</v>
       </c>
       <c r="D6" t="n">
-        <v>-134956.2494831079</v>
+        <v>-134956.2494831106</v>
       </c>
       <c r="E6" t="n">
-        <v>-720948.9901144134</v>
+        <v>-720983.7280398491</v>
       </c>
       <c r="F6" t="n">
-        <v>54019.3095823991</v>
+        <v>53984.57165696334</v>
       </c>
       <c r="G6" t="n">
-        <v>54019.3095823991</v>
+        <v>53984.57165696341</v>
       </c>
       <c r="H6" t="n">
-        <v>54019.30958239893</v>
+        <v>53984.57165696344</v>
       </c>
       <c r="I6" t="n">
-        <v>54019.30958239899</v>
+        <v>53984.57165696335</v>
       </c>
       <c r="J6" t="n">
-        <v>-118972.6607498188</v>
+        <v>-119007.3986752544</v>
       </c>
       <c r="K6" t="n">
-        <v>54019.30958239904</v>
+        <v>53984.57165696331</v>
       </c>
       <c r="L6" t="n">
-        <v>27338.18033052103</v>
+        <v>27338.18033052118</v>
       </c>
       <c r="M6" t="n">
-        <v>-80710.72073342245</v>
+        <v>-80710.72073342215</v>
       </c>
       <c r="N6" t="n">
-        <v>46765.89832415289</v>
+        <v>46765.89832415286</v>
       </c>
       <c r="O6" t="n">
-        <v>46765.89832415282</v>
+        <v>46765.89832415283</v>
       </c>
       <c r="P6" t="n">
-        <v>46765.89832415286</v>
+        <v>46765.89832415275</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175753</v>
+        <v>559.9667929175721</v>
       </c>
       <c r="C3" t="n">
-        <v>559.9667929175753</v>
+        <v>559.9667929175721</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787901</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="C4" t="n">
-        <v>661.1730837787901</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="D4" t="n">
-        <v>661.1730837787901</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.637173569366685e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.232151545544749e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175753</v>
+        <v>559.9667929175721</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.50930742048979</v>
+        <v>33.50930742049297</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787901</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.5352043208583</v>
+        <v>511.535204320858</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208582</v>
+        <v>511.535204320858</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.637173569366685e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787901</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208583</v>
+        <v>511.535204320858</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>54.67577840437349</v>
+        <v>116.7017132725994</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.462026260310921</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>153.2493442537775</v>
       </c>
       <c r="I4" t="n">
-        <v>125.0837511408429</v>
+        <v>125.083751140843</v>
       </c>
       <c r="J4" t="n">
-        <v>21.96800391142716</v>
+        <v>21.96800391142757</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.607057521140518</v>
+        <v>1.607057521141002</v>
       </c>
       <c r="R4" t="n">
-        <v>131.8901822333937</v>
+        <v>131.8901822333939</v>
       </c>
       <c r="S4" t="n">
-        <v>206.4189530857757</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T4" t="n">
         <v>223.631091187769</v>
       </c>
       <c r="U4" t="n">
-        <v>94.92944925736123</v>
+        <v>286.2639506555482</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>368.3219218684524</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>92.82614377031967</v>
       </c>
       <c r="H5" t="n">
-        <v>316.4204908877587</v>
+        <v>316.4204908877588</v>
       </c>
       <c r="I5" t="n">
-        <v>123.6894783786277</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>157.7226091094245</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.1655630849886</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>153.2493442537775</v>
       </c>
       <c r="I7" t="n">
-        <v>125.0837511408429</v>
+        <v>125.083751140843</v>
       </c>
       <c r="J7" t="n">
-        <v>21.96800391142716</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.607057521140518</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8901822333937</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2513515143493805</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.631091187769</v>
@@ -27831,16 +27831,16 @@
         <v>286.2639506555482</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>82.57856699739628</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.915596756205844</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.68357683121008</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,10 +27904,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>143.0837808188826</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>4.730895404084981</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.876109364510144e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.251122785598291</v>
+        <v>2.251122785598278</v>
       </c>
       <c r="H2" t="n">
-        <v>23.0543112280085</v>
+        <v>23.05431122800837</v>
       </c>
       <c r="I2" t="n">
-        <v>86.78641119177819</v>
+        <v>86.7864111917777</v>
       </c>
       <c r="J2" t="n">
-        <v>191.0612325241731</v>
+        <v>191.061232524172</v>
       </c>
       <c r="K2" t="n">
-        <v>286.3512600385488</v>
+        <v>286.3512600385472</v>
       </c>
       <c r="L2" t="n">
-        <v>355.2440589883026</v>
+        <v>355.2440589883006</v>
       </c>
       <c r="M2" t="n">
-        <v>395.2774638266862</v>
+        <v>395.2774638266839</v>
       </c>
       <c r="N2" t="n">
-        <v>401.6734664412674</v>
+        <v>401.6734664412651</v>
       </c>
       <c r="O2" t="n">
-        <v>379.2888642419744</v>
+        <v>379.2888642419722</v>
       </c>
       <c r="P2" t="n">
-        <v>323.7142704725165</v>
+        <v>323.7142704725146</v>
       </c>
       <c r="Q2" t="n">
-        <v>243.0959357132776</v>
+        <v>243.0959357132762</v>
       </c>
       <c r="R2" t="n">
-        <v>141.4070916808388</v>
+        <v>141.407091680838</v>
       </c>
       <c r="S2" t="n">
-        <v>51.29746047682111</v>
+        <v>51.29746047682081</v>
       </c>
       <c r="T2" t="n">
-        <v>9.854289993956524</v>
+        <v>9.854289993956467</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1800898228478632</v>
+        <v>0.1800898228478622</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.204456875332143</v>
+        <v>1.204456875332136</v>
       </c>
       <c r="H3" t="n">
-        <v>11.63251771702359</v>
+        <v>11.63251771702353</v>
       </c>
       <c r="I3" t="n">
-        <v>41.46923890946195</v>
+        <v>41.46923890946172</v>
       </c>
       <c r="J3" t="n">
-        <v>113.7947611909197</v>
+        <v>113.7947611909191</v>
       </c>
       <c r="K3" t="n">
-        <v>194.4933718381733</v>
+        <v>194.4933718381722</v>
       </c>
       <c r="L3" t="n">
-        <v>261.5203404092884</v>
+        <v>261.5203404092869</v>
       </c>
       <c r="M3" t="n">
-        <v>305.1819021400785</v>
+        <v>305.1819021400768</v>
       </c>
       <c r="N3" t="n">
-        <v>313.2591589926349</v>
+        <v>313.2591589926331</v>
       </c>
       <c r="O3" t="n">
-        <v>286.5709303339595</v>
+        <v>286.5709303339578</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9984361325037</v>
+        <v>229.9984361325024</v>
       </c>
       <c r="Q3" t="n">
-        <v>153.7478635950294</v>
+        <v>153.7478635950285</v>
       </c>
       <c r="R3" t="n">
-        <v>74.78198038246414</v>
+        <v>74.78198038246371</v>
       </c>
       <c r="S3" t="n">
-        <v>22.37225818873519</v>
+        <v>22.37225818873506</v>
       </c>
       <c r="T3" t="n">
-        <v>4.854806440483505</v>
+        <v>4.854806440483477</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0792405839034305</v>
+        <v>0.07924058390343004</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.009776183949726</v>
+        <v>1.00977618394972</v>
       </c>
       <c r="H4" t="n">
-        <v>8.977828253662114</v>
+        <v>8.977828253662063</v>
       </c>
       <c r="I4" t="n">
-        <v>30.3667237864154</v>
+        <v>30.36672378641523</v>
       </c>
       <c r="J4" t="n">
-        <v>71.39117620524561</v>
+        <v>71.3911762052452</v>
       </c>
       <c r="K4" t="n">
-        <v>117.3176330079772</v>
+        <v>117.3176330079765</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1261792028529</v>
+        <v>150.126179202852</v>
       </c>
       <c r="M4" t="n">
-        <v>158.2870067258647</v>
+        <v>158.2870067258638</v>
       </c>
       <c r="N4" t="n">
-        <v>154.5232954947795</v>
+        <v>154.5232954947786</v>
       </c>
       <c r="O4" t="n">
-        <v>142.7272737095486</v>
+        <v>142.7272737095477</v>
       </c>
       <c r="P4" t="n">
-        <v>122.1278395569741</v>
+        <v>122.1278395569734</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.55498573055387</v>
+        <v>84.55498573055338</v>
       </c>
       <c r="R4" t="n">
-        <v>45.40320914377584</v>
+        <v>45.40320914377558</v>
       </c>
       <c r="S4" t="n">
-        <v>17.59764495119658</v>
+        <v>17.59764495119648</v>
       </c>
       <c r="T4" t="n">
-        <v>4.314498240512464</v>
+        <v>4.314498240512439</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05507870094271238</v>
+        <v>0.05507870094271207</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.251122785598291</v>
+        <v>2.251122785598278</v>
       </c>
       <c r="H5" t="n">
-        <v>23.0543112280085</v>
+        <v>23.05431122800837</v>
       </c>
       <c r="I5" t="n">
-        <v>86.78641119177819</v>
+        <v>86.7864111917777</v>
       </c>
       <c r="J5" t="n">
-        <v>191.0612325241731</v>
+        <v>191.061232524172</v>
       </c>
       <c r="K5" t="n">
-        <v>286.3512600385488</v>
+        <v>286.3512600385472</v>
       </c>
       <c r="L5" t="n">
-        <v>355.2440589883026</v>
+        <v>355.2440589883006</v>
       </c>
       <c r="M5" t="n">
-        <v>395.2774638266862</v>
+        <v>395.2774638266839</v>
       </c>
       <c r="N5" t="n">
-        <v>401.6734664412674</v>
+        <v>401.6734664412651</v>
       </c>
       <c r="O5" t="n">
-        <v>379.2888642419744</v>
+        <v>379.2888642419722</v>
       </c>
       <c r="P5" t="n">
-        <v>323.7142704725165</v>
+        <v>323.7142704725146</v>
       </c>
       <c r="Q5" t="n">
-        <v>243.0959357132776</v>
+        <v>243.0959357132762</v>
       </c>
       <c r="R5" t="n">
-        <v>141.4070916808388</v>
+        <v>141.407091680838</v>
       </c>
       <c r="S5" t="n">
-        <v>51.29746047682111</v>
+        <v>51.29746047682081</v>
       </c>
       <c r="T5" t="n">
-        <v>9.854289993956524</v>
+        <v>9.854289993956467</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1800898228478632</v>
+        <v>0.1800898228478622</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.204456875332143</v>
+        <v>1.204456875332136</v>
       </c>
       <c r="H6" t="n">
-        <v>11.63251771702359</v>
+        <v>11.63251771702353</v>
       </c>
       <c r="I6" t="n">
-        <v>41.46923890946195</v>
+        <v>41.46923890946172</v>
       </c>
       <c r="J6" t="n">
-        <v>113.7947611909197</v>
+        <v>113.7947611909191</v>
       </c>
       <c r="K6" t="n">
-        <v>194.4933718381733</v>
+        <v>194.4933718381722</v>
       </c>
       <c r="L6" t="n">
-        <v>261.5203404092884</v>
+        <v>261.5203404092869</v>
       </c>
       <c r="M6" t="n">
-        <v>305.1819021400785</v>
+        <v>305.1819021400768</v>
       </c>
       <c r="N6" t="n">
-        <v>313.2591589926349</v>
+        <v>313.2591589926331</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5709303339595</v>
+        <v>286.5709303339578</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9984361325037</v>
+        <v>229.9984361325024</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.7478635950294</v>
+        <v>153.7478635950285</v>
       </c>
       <c r="R6" t="n">
-        <v>74.78198038246414</v>
+        <v>74.78198038246371</v>
       </c>
       <c r="S6" t="n">
-        <v>22.37225818873519</v>
+        <v>22.37225818873506</v>
       </c>
       <c r="T6" t="n">
-        <v>4.854806440483505</v>
+        <v>4.854806440483477</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0792405839034305</v>
+        <v>0.07924058390343004</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.009776183949726</v>
+        <v>1.00977618394972</v>
       </c>
       <c r="H7" t="n">
-        <v>8.977828253662114</v>
+        <v>8.977828253662063</v>
       </c>
       <c r="I7" t="n">
-        <v>30.3667237864154</v>
+        <v>30.36672378641523</v>
       </c>
       <c r="J7" t="n">
-        <v>71.39117620524561</v>
+        <v>71.3911762052452</v>
       </c>
       <c r="K7" t="n">
-        <v>117.3176330079772</v>
+        <v>117.3176330079765</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1261792028529</v>
+        <v>150.126179202852</v>
       </c>
       <c r="M7" t="n">
-        <v>158.2870067258647</v>
+        <v>158.2870067258638</v>
       </c>
       <c r="N7" t="n">
-        <v>154.5232954947795</v>
+        <v>154.5232954947786</v>
       </c>
       <c r="O7" t="n">
-        <v>142.7272737095486</v>
+        <v>142.7272737095477</v>
       </c>
       <c r="P7" t="n">
-        <v>122.1278395569741</v>
+        <v>122.1278395569734</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.55498573055387</v>
+        <v>84.55498573055338</v>
       </c>
       <c r="R7" t="n">
-        <v>45.40320914377584</v>
+        <v>45.40320914377558</v>
       </c>
       <c r="S7" t="n">
-        <v>17.59764495119658</v>
+        <v>17.59764495119648</v>
       </c>
       <c r="T7" t="n">
-        <v>4.314498240512464</v>
+        <v>4.314498240512439</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05507870094271238</v>
+        <v>0.05507870094271207</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732313</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>179.1119431695606</v>
+        <v>60.31668783552694</v>
       </c>
       <c r="K2" t="n">
-        <v>390.406821564733</v>
+        <v>390.4068215647314</v>
       </c>
       <c r="L2" t="n">
-        <v>240.1465334930528</v>
+        <v>537.1388585687638</v>
       </c>
       <c r="M2" t="n">
-        <v>614.4447640922459</v>
+        <v>164.9312305994112</v>
       </c>
       <c r="N2" t="n">
-        <v>609.6073272566606</v>
+        <v>609.6073272566583</v>
       </c>
       <c r="O2" t="n">
-        <v>149.1906528202876</v>
+        <v>529.9908340830308</v>
       </c>
       <c r="P2" t="n">
-        <v>414.2799828887296</v>
+        <v>92.48127471724507</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.79024583882813</v>
+        <v>233.1052364987314</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>56.65193286381432</v>
+        <v>56.65193286381322</v>
       </c>
       <c r="L3" t="n">
-        <v>493.8063059328734</v>
+        <v>493.8063059328719</v>
       </c>
       <c r="M3" t="n">
-        <v>628.75293196806</v>
+        <v>628.7529319680584</v>
       </c>
       <c r="N3" t="n">
-        <v>661.1730837787901</v>
+        <v>472.6772083259962</v>
       </c>
       <c r="O3" t="n">
-        <v>537.8370051662446</v>
+        <v>537.837005166243</v>
       </c>
       <c r="P3" t="n">
-        <v>225.9909219053084</v>
+        <v>414.4867973581094</v>
       </c>
       <c r="Q3" t="n">
-        <v>13.76608950900786</v>
+        <v>13.76608950900697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>95.04814118209435</v>
+        <v>95.04814118209369</v>
       </c>
       <c r="L4" t="n">
-        <v>177.716204463169</v>
+        <v>177.7162044631682</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8708836877053</v>
+        <v>197.8708836877044</v>
       </c>
       <c r="N4" t="n">
-        <v>198.6554678740081</v>
+        <v>198.6554678740072</v>
       </c>
       <c r="O4" t="n">
-        <v>167.3124016235882</v>
+        <v>167.3124016235874</v>
       </c>
       <c r="P4" t="n">
-        <v>119.4063988218676</v>
+        <v>119.4063988218669</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>179.1119431695606</v>
+        <v>179.1119431695595</v>
       </c>
       <c r="K5" t="n">
-        <v>390.406821564733</v>
+        <v>390.4068215647314</v>
       </c>
       <c r="L5" t="n">
-        <v>537.1388585687657</v>
+        <v>533.8918194752328</v>
       </c>
       <c r="M5" t="n">
-        <v>614.4447640922459</v>
+        <v>164.9312305994112</v>
       </c>
       <c r="N5" t="n">
-        <v>172.2604028446764</v>
+        <v>172.2604028446742</v>
       </c>
       <c r="O5" t="n">
-        <v>149.1906528202876</v>
+        <v>529.9908340830308</v>
       </c>
       <c r="P5" t="n">
-        <v>414.2799828887296</v>
+        <v>414.2799828887277</v>
       </c>
       <c r="Q5" t="n">
-        <v>161.1448451750992</v>
+        <v>233.1052364987314</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>113.0481698646619</v>
+        <v>113.0481698646612</v>
       </c>
       <c r="K6" t="n">
-        <v>321.1171698763929</v>
+        <v>56.65193286381322</v>
       </c>
       <c r="L6" t="n">
-        <v>493.8063059328734</v>
+        <v>122.9659606294127</v>
       </c>
       <c r="M6" t="n">
-        <v>628.75293196806</v>
+        <v>628.7529319680584</v>
       </c>
       <c r="N6" t="n">
-        <v>413.6265700886844</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="O6" t="n">
-        <v>537.8370051662446</v>
+        <v>537.837005166243</v>
       </c>
       <c r="P6" t="n">
-        <v>96.0240287181735</v>
+        <v>273.705809608264</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.76608950900786</v>
+        <v>223.8433772448561</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>95.04814118209435</v>
+        <v>95.04814118209369</v>
       </c>
       <c r="L7" t="n">
-        <v>177.716204463169</v>
+        <v>177.7162044631682</v>
       </c>
       <c r="M7" t="n">
-        <v>197.8708836877053</v>
+        <v>197.8708836877044</v>
       </c>
       <c r="N7" t="n">
-        <v>198.6554678740081</v>
+        <v>198.6554678740072</v>
       </c>
       <c r="O7" t="n">
-        <v>167.3124016235882</v>
+        <v>167.3124016235874</v>
       </c>
       <c r="P7" t="n">
-        <v>119.4063988218676</v>
+        <v>119.4063988218669</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>401.0157967478916</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>456.5769654860032</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287869</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
